--- a/labs/lab11/Source_Data.xlsx
+++ b/labs/lab11/Source_Data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\Documents\GitHub\advstatistics-labs\labs\lab11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39134BCF-F56C-4603-BBD7-BC3366B1460E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21B8A9B-BAA9-4614-81E5-DDB19A87469D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="1830" windowWidth="20640" windowHeight="11160"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Source_Data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Source_Data!$A$1:$J$82</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -343,7 +346,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1180,11 +1183,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1224,7 +1228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1288,7 +1292,7 @@
         <v>1.8926102010000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1448,7 +1452,7 @@
         <v>1.9504596750000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1480,7 +1484,7 @@
         <v>3.2059308930000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,7 +1516,7 @@
         <v>3.8391758669999998</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1544,7 +1548,7 @@
         <v>1.602000662</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -1576,7 +1580,7 @@
         <v>1.907342235</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1608,7 +1612,7 @@
         <v>1.718626228</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -1640,7 +1644,7 @@
         <v>4.6239587389999999</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1672,7 +1676,7 @@
         <v>1.278490302</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -1832,7 +1836,7 @@
         <v>1.8748162820000001</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -1896,7 +1900,7 @@
         <v>2.2840323819999999</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -1928,7 +1932,7 @@
         <v>1.1517397760000001</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -1960,7 +1964,7 @@
         <v>3.6875089829999999</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -1992,7 +1996,7 @@
         <v>2.2666881860000001</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
@@ -2024,7 +2028,7 @@
         <v>4.2729934749999998</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
@@ -2056,7 +2060,7 @@
         <v>4.7558233369999998</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>46</v>
       </c>
@@ -2088,7 +2092,7 @@
         <v>2.916795187</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
@@ -2120,7 +2124,7 @@
         <v>3.1228219429999999</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>49</v>
       </c>
@@ -2152,7 +2156,7 @@
         <v>4.553028962</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>51</v>
       </c>
@@ -2184,7 +2188,7 @@
         <v>5.5295621129999999</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>52</v>
       </c>
@@ -2216,7 +2220,7 @@
         <v>2.5962381680000002</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>53</v>
       </c>
@@ -2248,7 +2252,7 @@
         <v>1.427450023</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>55</v>
       </c>
@@ -2280,7 +2284,7 @@
         <v>4.8806316609999998</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
@@ -2312,7 +2316,7 @@
         <v>1.8978548740000001</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>57</v>
       </c>
@@ -2344,7 +2348,7 @@
         <v>5.3720879679999998</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>58</v>
       </c>
@@ -2376,7 +2380,7 @@
         <v>3.562723284</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>59</v>
       </c>
@@ -2408,7 +2412,7 @@
         <v>4.891408814</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>60</v>
       </c>
@@ -2440,7 +2444,7 @@
         <v>5.3637776180000003</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>61</v>
       </c>
@@ -2472,7 +2476,7 @@
         <v>3.4281519889999998</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>62</v>
       </c>
@@ -2504,7 +2508,7 @@
         <v>4.6076338459999997</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>63</v>
       </c>
@@ -2536,7 +2540,7 @@
         <v>3.082974213</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>64</v>
       </c>
@@ -2568,7 +2572,7 @@
         <v>2.792927578</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>65</v>
       </c>
@@ -2600,7 +2604,7 @@
         <v>1.0817928130000001</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>66</v>
       </c>
@@ -2632,7 +2636,7 @@
         <v>2.2813859820000002</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>67</v>
       </c>
@@ -2664,7 +2668,7 @@
         <v>2.781331625</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>69</v>
       </c>
@@ -2696,7 +2700,7 @@
         <v>2.197162069</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>71</v>
       </c>
@@ -2728,7 +2732,7 @@
         <v>3.3961318500000002</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>72</v>
       </c>
@@ -2760,7 +2764,7 @@
         <v>2.8370747449999998</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>73</v>
       </c>
@@ -2792,7 +2796,7 @@
         <v>2.462249146</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>74</v>
       </c>
@@ -2824,7 +2828,7 @@
         <v>3.4793082970000002</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>75</v>
       </c>
@@ -2856,7 +2860,7 @@
         <v>2.2768370020000002</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>76</v>
       </c>
@@ -2888,7 +2892,7 @@
         <v>1.9810799029999999</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>77</v>
       </c>
@@ -2920,7 +2924,7 @@
         <v>2.307166724</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>78</v>
       </c>
@@ -2952,7 +2956,7 @@
         <v>2.113321504</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>79</v>
       </c>
@@ -2984,7 +2988,7 @@
         <v>3.2838691550000001</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>80</v>
       </c>
@@ -3016,7 +3020,7 @@
         <v>2.5109977290000001</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>81</v>
       </c>
@@ -3048,7 +3052,7 @@
         <v>2.6503780899999998</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>82</v>
       </c>
@@ -3080,7 +3084,7 @@
         <v>1.628812529</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>83</v>
       </c>
@@ -3112,7 +3116,7 @@
         <v>2.067085632</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>84</v>
       </c>
@@ -3144,7 +3148,7 @@
         <v>2.4920622969999999</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>85</v>
       </c>
@@ -3176,7 +3180,7 @@
         <v>2.5694022730000001</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>86</v>
       </c>
@@ -3208,7 +3212,7 @@
         <v>1.6596801269999999</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>87</v>
       </c>
@@ -3240,7 +3244,7 @@
         <v>0.84087084300000003</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>88</v>
       </c>
@@ -3272,7 +3276,7 @@
         <v>1.231935869</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>89</v>
       </c>
@@ -3304,7 +3308,7 @@
         <v>1.3101863629999999</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>90</v>
       </c>
@@ -3336,7 +3340,7 @@
         <v>2.8092704940000002</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>91</v>
       </c>
@@ -3368,7 +3372,7 @@
         <v>1.36416903</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>92</v>
       </c>
@@ -3400,7 +3404,7 @@
         <v>5.2871118719999997</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>93</v>
       </c>
@@ -3432,7 +3436,7 @@
         <v>1.5652581459999999</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>94</v>
       </c>
@@ -3464,7 +3468,7 @@
         <v>4.2400100629999997</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>95</v>
       </c>
@@ -3496,7 +3500,7 @@
         <v>2.829956202</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>96</v>
       </c>
@@ -3528,7 +3532,7 @@
         <v>4.02404428</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>97</v>
       </c>
@@ -3560,7 +3564,7 @@
         <v>3.9037244850000001</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>98</v>
       </c>
@@ -3592,7 +3596,7 @@
         <v>2.2412054170000002</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>99</v>
       </c>
@@ -3624,7 +3628,7 @@
         <v>3.0178694410000002</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>100</v>
       </c>
@@ -3656,7 +3660,7 @@
         <v>5.3901605119999996</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>101</v>
       </c>
@@ -3688,7 +3692,7 @@
         <v>4.9789418689999998</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>102</v>
       </c>
@@ -3720,7 +3724,7 @@
         <v>5.0559677130000003</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>103</v>
       </c>
@@ -3752,7 +3756,7 @@
         <v>4.4167113550000003</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>104</v>
       </c>
@@ -3784,7 +3788,7 @@
         <v>3.0144297820000001</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>105</v>
       </c>
@@ -3817,6 +3821,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J82" xr:uid="{6F63531B-75A6-4DA4-B153-57884F784F53}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Cage2_WT"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/labs/lab11/Source_Data.xlsx
+++ b/labs/lab11/Source_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\Documents\GitHub\advstatistics-labs\labs\lab11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21B8A9B-BAA9-4614-81E5-DDB19A87469D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBB5EBC-73F1-4C1F-82AA-8E25501AB168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1184,7 +1184,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1228,7 +1227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1292,7 +1291,7 @@
         <v>1.8926102010000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1452,7 +1451,7 @@
         <v>1.9504596750000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1484,7 +1483,7 @@
         <v>3.2059308930000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1516,7 +1515,7 @@
         <v>3.8391758669999998</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1548,7 +1547,7 @@
         <v>1.602000662</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -1580,7 +1579,7 @@
         <v>1.907342235</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1612,7 +1611,7 @@
         <v>1.718626228</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -1644,7 +1643,7 @@
         <v>4.6239587389999999</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1676,7 +1675,7 @@
         <v>1.278490302</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -1836,7 +1835,7 @@
         <v>1.8748162820000001</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -1900,7 +1899,7 @@
         <v>2.2840323819999999</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -1932,7 +1931,7 @@
         <v>1.1517397760000001</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -1964,7 +1963,7 @@
         <v>3.6875089829999999</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -1996,7 +1995,7 @@
         <v>2.2666881860000001</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
@@ -2028,7 +2027,7 @@
         <v>4.2729934749999998</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
@@ -2060,7 +2059,7 @@
         <v>4.7558233369999998</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>46</v>
       </c>
@@ -2092,7 +2091,7 @@
         <v>2.916795187</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
@@ -2124,7 +2123,7 @@
         <v>3.1228219429999999</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>49</v>
       </c>
@@ -2156,7 +2155,7 @@
         <v>4.553028962</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>51</v>
       </c>
@@ -2188,7 +2187,7 @@
         <v>5.5295621129999999</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>52</v>
       </c>
@@ -2220,7 +2219,7 @@
         <v>2.5962381680000002</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>53</v>
       </c>
@@ -2252,7 +2251,7 @@
         <v>1.427450023</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>55</v>
       </c>
@@ -2284,7 +2283,7 @@
         <v>4.8806316609999998</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
@@ -2316,7 +2315,7 @@
         <v>1.8978548740000001</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>57</v>
       </c>
@@ -2348,7 +2347,7 @@
         <v>5.3720879679999998</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>58</v>
       </c>
@@ -2380,7 +2379,7 @@
         <v>3.562723284</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>59</v>
       </c>
@@ -2412,7 +2411,7 @@
         <v>4.891408814</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>60</v>
       </c>
@@ -2444,7 +2443,7 @@
         <v>5.3637776180000003</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>61</v>
       </c>
@@ -2476,7 +2475,7 @@
         <v>3.4281519889999998</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>62</v>
       </c>
@@ -2508,7 +2507,7 @@
         <v>4.6076338459999997</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>63</v>
       </c>
@@ -2540,7 +2539,7 @@
         <v>3.082974213</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>64</v>
       </c>
@@ -2572,7 +2571,7 @@
         <v>2.792927578</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>65</v>
       </c>
@@ -2604,7 +2603,7 @@
         <v>1.0817928130000001</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>66</v>
       </c>
@@ -2636,7 +2635,7 @@
         <v>2.2813859820000002</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>67</v>
       </c>
@@ -2668,7 +2667,7 @@
         <v>2.781331625</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>69</v>
       </c>
@@ -2700,7 +2699,7 @@
         <v>2.197162069</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>71</v>
       </c>
@@ -2732,7 +2731,7 @@
         <v>3.3961318500000002</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>72</v>
       </c>
@@ -2764,7 +2763,7 @@
         <v>2.8370747449999998</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>73</v>
       </c>
@@ -2796,7 +2795,7 @@
         <v>2.462249146</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>74</v>
       </c>
@@ -2828,7 +2827,7 @@
         <v>3.4793082970000002</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>75</v>
       </c>
@@ -2860,7 +2859,7 @@
         <v>2.2768370020000002</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>76</v>
       </c>
@@ -2892,7 +2891,7 @@
         <v>1.9810799029999999</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>77</v>
       </c>
@@ -2924,7 +2923,7 @@
         <v>2.307166724</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>78</v>
       </c>
@@ -2956,7 +2955,7 @@
         <v>2.113321504</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>79</v>
       </c>
@@ -2988,7 +2987,7 @@
         <v>3.2838691550000001</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>80</v>
       </c>
@@ -3020,7 +3019,7 @@
         <v>2.5109977290000001</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>81</v>
       </c>
@@ -3052,7 +3051,7 @@
         <v>2.6503780899999998</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>82</v>
       </c>
@@ -3084,7 +3083,7 @@
         <v>1.628812529</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>83</v>
       </c>
@@ -3116,7 +3115,7 @@
         <v>2.067085632</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>84</v>
       </c>
@@ -3148,7 +3147,7 @@
         <v>2.4920622969999999</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>85</v>
       </c>
@@ -3180,7 +3179,7 @@
         <v>2.5694022730000001</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>86</v>
       </c>
@@ -3212,7 +3211,7 @@
         <v>1.6596801269999999</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>87</v>
       </c>
@@ -3244,7 +3243,7 @@
         <v>0.84087084300000003</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>88</v>
       </c>
@@ -3276,7 +3275,7 @@
         <v>1.231935869</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>89</v>
       </c>
@@ -3308,7 +3307,7 @@
         <v>1.3101863629999999</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>90</v>
       </c>
@@ -3340,7 +3339,7 @@
         <v>2.8092704940000002</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>91</v>
       </c>
@@ -3372,7 +3371,7 @@
         <v>1.36416903</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>92</v>
       </c>
@@ -3404,7 +3403,7 @@
         <v>5.2871118719999997</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>93</v>
       </c>
@@ -3436,7 +3435,7 @@
         <v>1.5652581459999999</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>94</v>
       </c>
@@ -3468,7 +3467,7 @@
         <v>4.2400100629999997</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>95</v>
       </c>
@@ -3500,7 +3499,7 @@
         <v>2.829956202</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>96</v>
       </c>
@@ -3532,7 +3531,7 @@
         <v>4.02404428</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>97</v>
       </c>
@@ -3564,7 +3563,7 @@
         <v>3.9037244850000001</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>98</v>
       </c>
@@ -3596,7 +3595,7 @@
         <v>2.2412054170000002</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>99</v>
       </c>
@@ -3628,7 +3627,7 @@
         <v>3.0178694410000002</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>100</v>
       </c>
@@ -3660,7 +3659,7 @@
         <v>5.3901605119999996</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>101</v>
       </c>
@@ -3692,7 +3691,7 @@
         <v>4.9789418689999998</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>102</v>
       </c>
@@ -3724,7 +3723,7 @@
         <v>5.0559677130000003</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>103</v>
       </c>
@@ -3756,7 +3755,7 @@
         <v>4.4167113550000003</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>104</v>
       </c>
@@ -3788,7 +3787,7 @@
         <v>3.0144297820000001</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>105</v>
       </c>
@@ -3821,13 +3820,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J82" xr:uid="{6F63531B-75A6-4DA4-B153-57884F784F53}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Cage2_WT"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J82" xr:uid="{6F63531B-75A6-4DA4-B153-57884F784F53}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>